--- a/data/input/test_reference_rgb_values.xlsx
+++ b/data/input/test_reference_rgb_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Research topic\trials\camera selection\comparision of rmsd and mne of models\GUI\extraction_modelling\Logitech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Research topic\Thesis writing\Software impacts\RGB_extraction_correction_code\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5898251C-3459-404C-854D-E734A5D08D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B92C93-1ED4-4681-83CF-D9D5571D2695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="10" windowWidth="12770" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Reference R</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>Reference B</t>
-  </si>
-  <si>
-    <t>Reference L*</t>
-  </si>
-  <si>
-    <t>Reference a*</t>
-  </si>
-  <si>
-    <t>Reference b*</t>
   </si>
 </sst>
 </file>
@@ -78,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D1" sqref="D1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -377,7 +367,7 @@
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,17 +377,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>115</v>
       </c>
@@ -407,17 +388,8 @@
       <c r="C2">
         <v>68</v>
       </c>
-      <c r="D2" s="1">
-        <v>37.99</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13.56</v>
-      </c>
-      <c r="F2" s="1">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>194</v>
       </c>
@@ -427,17 +399,8 @@
       <c r="C3">
         <v>130</v>
       </c>
-      <c r="D3" s="1">
-        <v>65.709999999999994</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18.13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>17.809999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>98</v>
       </c>
@@ -447,17 +410,8 @@
       <c r="C4">
         <v>157</v>
       </c>
-      <c r="D4" s="1">
-        <v>49.93</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-4.88</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-21.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>87</v>
       </c>
@@ -467,17 +421,8 @@
       <c r="C5">
         <v>67</v>
       </c>
-      <c r="D5" s="1">
-        <v>43.14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-13.1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>21.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>133</v>
       </c>
@@ -487,17 +432,8 @@
       <c r="C6">
         <v>177</v>
       </c>
-      <c r="D6" s="1">
-        <v>55.11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8.84</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-25.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>103</v>
       </c>
@@ -507,17 +443,8 @@
       <c r="C7">
         <v>170</v>
       </c>
-      <c r="D7" s="1">
-        <v>70.72</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-33.4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>214</v>
       </c>
@@ -527,17 +454,8 @@
       <c r="C8">
         <v>44</v>
       </c>
-      <c r="D8" s="1">
-        <v>62.66</v>
-      </c>
-      <c r="E8" s="1">
-        <v>36.07</v>
-      </c>
-      <c r="F8" s="1">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>80</v>
       </c>
@@ -547,17 +465,8 @@
       <c r="C9">
         <v>166</v>
       </c>
-      <c r="D9" s="1">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10.41</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-45.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>193</v>
       </c>
@@ -567,17 +476,8 @@
       <c r="C10">
         <v>99</v>
       </c>
-      <c r="D10" s="1">
-        <v>51.12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>48.24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>94</v>
       </c>
@@ -587,17 +487,8 @@
       <c r="C11">
         <v>108</v>
       </c>
-      <c r="D11" s="1">
-        <v>30.33</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22.98</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-21.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>157</v>
       </c>
@@ -607,17 +498,8 @@
       <c r="C12">
         <v>64</v>
       </c>
-      <c r="D12" s="1">
-        <v>72.53</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-23.71</v>
-      </c>
-      <c r="F12" s="1">
-        <v>57.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>224</v>
       </c>
@@ -627,17 +509,8 @@
       <c r="C13">
         <v>46</v>
       </c>
-      <c r="D13" s="1">
-        <v>71.94</v>
-      </c>
-      <c r="E13" s="1">
-        <v>19.36</v>
-      </c>
-      <c r="F13" s="1">
-        <v>67.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>56</v>
       </c>
@@ -647,17 +520,8 @@
       <c r="C14">
         <v>150</v>
       </c>
-      <c r="D14" s="1">
-        <v>28.78</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14.18</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-50.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70</v>
       </c>
@@ -667,17 +531,8 @@
       <c r="C15">
         <v>73</v>
       </c>
-      <c r="D15" s="1">
-        <v>55.26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-38.340000000000003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>31.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>175</v>
       </c>
@@ -687,17 +542,8 @@
       <c r="C16">
         <v>60</v>
       </c>
-      <c r="D16" s="1">
-        <v>42.1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>53.38</v>
-      </c>
-      <c r="F16" s="1">
-        <v>28.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>231</v>
       </c>
@@ -707,17 +553,8 @@
       <c r="C17">
         <v>31</v>
       </c>
-      <c r="D17" s="1">
-        <v>81.73</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.04</v>
-      </c>
-      <c r="F17" s="1">
-        <v>79.819999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
@@ -727,17 +564,8 @@
       <c r="C18">
         <v>149</v>
       </c>
-      <c r="D18" s="1">
-        <v>51.94</v>
-      </c>
-      <c r="E18" s="1">
-        <v>49.99</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-14.57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -747,17 +575,8 @@
       <c r="C19">
         <v>161</v>
       </c>
-      <c r="D19" s="1">
-        <v>51.04</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-28.63</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-28.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>243</v>
       </c>
@@ -767,17 +586,8 @@
       <c r="C20">
         <v>242</v>
       </c>
-      <c r="D20" s="1">
-        <v>96.54</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-0.42499999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.1859999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200</v>
       </c>
@@ -787,17 +597,8 @@
       <c r="C21">
         <v>200</v>
       </c>
-      <c r="D21" s="1">
-        <v>81.260000000000005</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-0.63800000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>160</v>
       </c>
@@ -807,17 +608,8 @@
       <c r="C22">
         <v>160</v>
       </c>
-      <c r="D22" s="1">
-        <v>66.77</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-0.73399999999999999</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-0.504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -827,17 +619,8 @@
       <c r="C23">
         <v>121</v>
       </c>
-      <c r="D23" s="1">
-        <v>50.87</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-0.153</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>85</v>
       </c>
@@ -847,17 +630,8 @@
       <c r="C24">
         <v>85</v>
       </c>
-      <c r="D24" s="1">
-        <v>35.659999999999997</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-0.42099999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-1.2310000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>52</v>
       </c>
@@ -866,15 +640,6 @@
       </c>
       <c r="C25">
         <v>52</v>
-      </c>
-      <c r="D25" s="1">
-        <v>20.46</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-0.97299999999999998</v>
       </c>
     </row>
   </sheetData>
